--- a/templates/Sample-Excel_Report.xlsx
+++ b/templates/Sample-Excel_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TiiTii\Desktop\Q_Wrkr\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EF955-216B-4B5B-ACFE-D646AB678B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A436EFA-965F-4357-99CA-7F79A88105E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="801" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3836,6 +3836,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3864,6 +3865,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5393,7 +5395,77 @@
     <xf numFmtId="0" fontId="65" fillId="5" borderId="4" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="35" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="87" fillId="6" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5404,6 +5476,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="65" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5418,8 +5493,139 @@
     <xf numFmtId="173" fontId="65" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="84" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5483,66 +5689,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5625,6 +5771,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="48" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5664,18 +5822,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5688,150 +5834,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="84" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="35" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="84" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="86" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="87" fillId="6" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="%_WHT .Return" xfId="20" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8123,7 +8125,7 @@
   <dimension ref="B1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21.6"/>
@@ -8855,41 +8857,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.6">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="377" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="326"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="378"/>
     </row>
     <row r="2" spans="1:10" ht="33.6">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="377" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="326"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="378"/>
     </row>
     <row r="3" spans="1:10" ht="27">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="379" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
+      <c r="B3" s="379"/>
+      <c r="C3" s="379"/>
+      <c r="D3" s="379"/>
+      <c r="E3" s="379"/>
       <c r="F3" s="159"/>
       <c r="G3" s="159"/>
       <c r="H3" s="159"/>
@@ -8897,12 +8899,12 @@
       <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10" ht="27">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="320" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
+      <c r="B4" s="320"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
       <c r="E4" s="159"/>
       <c r="F4" s="159"/>
       <c r="G4" s="159"/>
@@ -8911,47 +8913,47 @@
       <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" ht="25.2">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="359" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="313" t="s">
+      <c r="C5" s="363"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="328" t="s">
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="380" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.2">
-      <c r="A6" s="308"/>
-      <c r="B6" s="318" t="s">
+      <c r="A6" s="360"/>
+      <c r="B6" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="319"/>
-      <c r="D6" s="320"/>
-      <c r="E6" s="321" t="s">
+      <c r="C6" s="371"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="322" t="s">
+      <c r="F6" s="374" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="319"/>
-      <c r="I6" s="320"/>
-      <c r="J6" s="329"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="381"/>
     </row>
     <row r="7" spans="1:10" ht="25.2">
-      <c r="A7" s="309"/>
+      <c r="A7" s="361"/>
       <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
@@ -8961,8 +8963,8 @@
       <c r="D7" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
       <c r="G7" s="155" t="s">
         <v>6</v>
       </c>
@@ -8972,7 +8974,7 @@
       <c r="I7" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="330"/>
+      <c r="J7" s="382"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="131">
@@ -22505,10 +22507,10 @@
       <c r="J458" s="161"/>
     </row>
     <row r="459" spans="1:10" ht="24">
-      <c r="A459" s="323" t="s">
+      <c r="A459" s="375" t="s">
         <v>724</v>
       </c>
-      <c r="B459" s="324"/>
+      <c r="B459" s="376"/>
       <c r="C459" s="164"/>
       <c r="D459" s="165">
         <f>SUM(D8:D458)</f>
@@ -22572,41 +22574,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.6">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="377" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="326"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="378"/>
     </row>
     <row r="2" spans="1:10" ht="33.6">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="377" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="326"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="378"/>
     </row>
     <row r="3" spans="1:10" ht="27">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="379" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
+      <c r="B3" s="379"/>
+      <c r="C3" s="379"/>
+      <c r="D3" s="379"/>
+      <c r="E3" s="379"/>
       <c r="F3" s="159"/>
       <c r="G3" s="159"/>
       <c r="H3" s="159"/>
@@ -22614,12 +22616,12 @@
       <c r="J3" s="160"/>
     </row>
     <row r="4" spans="1:10" ht="27">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="320" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
+      <c r="B4" s="320"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
       <c r="E4" s="159"/>
       <c r="F4" s="159"/>
       <c r="G4" s="159"/>
@@ -22628,47 +22630,47 @@
       <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" ht="25.2">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="359" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="313" t="s">
+      <c r="C5" s="363"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="328" t="s">
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="380" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.2">
-      <c r="A6" s="308"/>
-      <c r="B6" s="318" t="s">
+      <c r="A6" s="360"/>
+      <c r="B6" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="319"/>
-      <c r="D6" s="320"/>
-      <c r="E6" s="321" t="s">
+      <c r="C6" s="371"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="322" t="s">
+      <c r="F6" s="374" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="319"/>
-      <c r="I6" s="320"/>
-      <c r="J6" s="329"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="381"/>
     </row>
     <row r="7" spans="1:10" ht="25.2">
-      <c r="A7" s="309"/>
+      <c r="A7" s="361"/>
       <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
@@ -22678,8 +22680,8 @@
       <c r="D7" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
       <c r="G7" s="155" t="s">
         <v>6</v>
       </c>
@@ -22689,7 +22691,7 @@
       <c r="I7" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="330"/>
+      <c r="J7" s="382"/>
     </row>
     <row r="8" spans="1:10" ht="25.2">
       <c r="A8" s="169"/>
@@ -23111,39 +23113,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="178" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="392" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
       <c r="N1" s="177"/>
     </row>
     <row r="2" spans="1:15" s="179" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="393" t="s">
         <v>907</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
       <c r="N2" s="177"/>
     </row>
     <row r="3" spans="1:15" s="189" customFormat="1" ht="22.5" customHeight="1">
@@ -23191,22 +23193,22 @@
       <c r="O4" s="188"/>
     </row>
     <row r="5" spans="1:15" s="198" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="338" t="s">
+      <c r="A5" s="394" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="340" t="s">
+      <c r="B5" s="395"/>
+      <c r="C5" s="395"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="395"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
+      <c r="I5" s="396" t="s">
         <v>756</v>
       </c>
-      <c r="J5" s="340"/>
-      <c r="K5" s="340"/>
-      <c r="L5" s="340"/>
+      <c r="J5" s="396"/>
+      <c r="K5" s="396"/>
+      <c r="L5" s="396"/>
       <c r="M5" s="199"/>
     </row>
     <row r="6" spans="1:15" s="198" customFormat="1" ht="14.25" customHeight="1">
@@ -23225,17 +23227,17 @@
       <c r="E6" s="201" t="s">
         <v>760</v>
       </c>
-      <c r="F6" s="341" t="s">
+      <c r="F6" s="397" t="s">
         <v>761</v>
       </c>
-      <c r="G6" s="341"/>
+      <c r="G6" s="397"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="342" t="s">
+      <c r="I6" s="398" t="s">
         <v>762</v>
       </c>
-      <c r="J6" s="343"/>
-      <c r="K6" s="343"/>
-      <c r="L6" s="343"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="202" t="s">
         <v>763</v>
       </c>
@@ -23255,14 +23257,14 @@
       <c r="H7" s="207" t="s">
         <v>765</v>
       </c>
-      <c r="I7" s="347" t="s">
+      <c r="I7" s="386" t="s">
         <v>766</v>
       </c>
-      <c r="J7" s="347"/>
-      <c r="K7" s="347" t="s">
+      <c r="J7" s="386"/>
+      <c r="K7" s="386" t="s">
         <v>767</v>
       </c>
-      <c r="L7" s="347"/>
+      <c r="L7" s="386"/>
       <c r="M7" s="202" t="s">
         <v>768</v>
       </c>
@@ -23715,13 +23717,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="224" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A23" s="331">
+      <c r="A23" s="387">
         <f>L4</f>
         <v>4088</v>
       </c>
-      <c r="B23" s="331"/>
-      <c r="C23" s="331"/>
-      <c r="D23" s="331"/>
+      <c r="B23" s="387"/>
+      <c r="C23" s="387"/>
+      <c r="D23" s="387"/>
       <c r="E23" s="222" t="s">
         <v>847</v>
       </c>
@@ -23744,12 +23746,12 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="224" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="332" t="s">
+      <c r="A24" s="388" t="s">
         <v>848</v>
       </c>
-      <c r="B24" s="333"/>
-      <c r="C24" s="333"/>
-      <c r="D24" s="333"/>
+      <c r="B24" s="389"/>
+      <c r="C24" s="389"/>
+      <c r="D24" s="389"/>
       <c r="E24" s="225" t="s">
         <v>0</v>
       </c>
@@ -23818,22 +23820,22 @@
       <c r="E26" s="230"/>
       <c r="F26" s="19"/>
       <c r="G26" s="230"/>
-      <c r="H26" s="334" t="s">
+      <c r="H26" s="390" t="s">
         <v>853</v>
       </c>
-      <c r="I26" s="334"/>
-      <c r="J26" s="334"/>
-      <c r="K26" s="334"/>
-      <c r="L26" s="334"/>
-      <c r="M26" s="334"/>
+      <c r="I26" s="390"/>
+      <c r="J26" s="390"/>
+      <c r="K26" s="390"/>
+      <c r="L26" s="390"/>
+      <c r="M26" s="390"/>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1">
-      <c r="H27" s="335"/>
-      <c r="I27" s="335"/>
-      <c r="J27" s="335"/>
-      <c r="K27" s="335"/>
-      <c r="L27" s="335"/>
-      <c r="M27" s="335"/>
+      <c r="H27" s="391"/>
+      <c r="I27" s="391"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
+      <c r="M27" s="391"/>
       <c r="N27" s="21">
         <f>H23*1%</f>
         <v>18908527.420000002</v>
@@ -23854,9 +23856,9 @@
         <v>953</v>
       </c>
       <c r="H29" s="236"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="344"/>
+      <c r="I29" s="383"/>
+      <c r="J29" s="383"/>
+      <c r="K29" s="383"/>
       <c r="L29" s="236"/>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1">
@@ -23935,18 +23937,18 @@
       <c r="K35" s="224"/>
     </row>
     <row r="36" spans="6:13" ht="14.25" customHeight="1">
-      <c r="H36" s="345"/>
-      <c r="I36" s="345"/>
+      <c r="H36" s="384"/>
+      <c r="I36" s="384"/>
       <c r="J36" s="224"/>
       <c r="K36" s="224"/>
       <c r="M36" s="242"/>
     </row>
     <row r="37" spans="6:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="H37" s="346">
+      <c r="H37" s="385">
         <f>H24*1%</f>
         <v>4625.3736350293548</v>
       </c>
-      <c r="I37" s="346"/>
+      <c r="I37" s="385"/>
     </row>
     <row r="38" spans="6:13" ht="14.25" customHeight="1">
       <c r="H38" s="29"/>
@@ -23984,11 +23986,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="H26:M26"/>
@@ -23999,6 +23996,11 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.16" top="0.51" bottom="0.5" header="0.46" footer="0.2"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -24035,39 +24037,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="178" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="392" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
       <c r="N1" s="177"/>
     </row>
     <row r="2" spans="1:15" s="179" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="393" t="s">
         <v>854</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
       <c r="N2" s="177"/>
     </row>
     <row r="3" spans="1:15" s="189" customFormat="1" ht="22.5" customHeight="1">
@@ -24115,22 +24117,22 @@
       <c r="O4" s="188"/>
     </row>
     <row r="5" spans="1:15" s="198" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="338" t="s">
+      <c r="A5" s="394" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="340" t="s">
+      <c r="B5" s="395"/>
+      <c r="C5" s="395"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="395"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
+      <c r="I5" s="396" t="s">
         <v>756</v>
       </c>
-      <c r="J5" s="340"/>
-      <c r="K5" s="340"/>
-      <c r="L5" s="340"/>
+      <c r="J5" s="396"/>
+      <c r="K5" s="396"/>
+      <c r="L5" s="396"/>
       <c r="M5" s="199"/>
     </row>
     <row r="6" spans="1:15" s="198" customFormat="1" ht="14.25" customHeight="1">
@@ -24149,17 +24151,17 @@
       <c r="E6" s="201" t="s">
         <v>760</v>
       </c>
-      <c r="F6" s="341" t="s">
+      <c r="F6" s="397" t="s">
         <v>761</v>
       </c>
-      <c r="G6" s="341"/>
+      <c r="G6" s="397"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="342" t="s">
+      <c r="I6" s="398" t="s">
         <v>762</v>
       </c>
-      <c r="J6" s="343"/>
-      <c r="K6" s="343"/>
-      <c r="L6" s="343"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="202" t="s">
         <v>763</v>
       </c>
@@ -24179,14 +24181,14 @@
       <c r="H7" s="207" t="s">
         <v>765</v>
       </c>
-      <c r="I7" s="347" t="s">
+      <c r="I7" s="386" t="s">
         <v>766</v>
       </c>
-      <c r="J7" s="347"/>
-      <c r="K7" s="347" t="s">
+      <c r="J7" s="386"/>
+      <c r="K7" s="386" t="s">
         <v>767</v>
       </c>
-      <c r="L7" s="347"/>
+      <c r="L7" s="386"/>
       <c r="M7" s="202" t="s">
         <v>768</v>
       </c>
@@ -24849,13 +24851,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="224" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="331">
+      <c r="A30" s="387">
         <f>L4</f>
         <v>4099</v>
       </c>
-      <c r="B30" s="331"/>
-      <c r="C30" s="331"/>
-      <c r="D30" s="331"/>
+      <c r="B30" s="387"/>
+      <c r="C30" s="387"/>
+      <c r="D30" s="387"/>
       <c r="E30" s="222" t="s">
         <v>847</v>
       </c>
@@ -24878,12 +24880,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="224" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A31" s="332" t="s">
+      <c r="A31" s="388" t="s">
         <v>848</v>
       </c>
-      <c r="B31" s="333"/>
-      <c r="C31" s="333"/>
-      <c r="D31" s="333"/>
+      <c r="B31" s="389"/>
+      <c r="C31" s="389"/>
+      <c r="D31" s="389"/>
       <c r="E31" s="225" t="s">
         <v>0</v>
       </c>
@@ -24952,22 +24954,22 @@
       <c r="E33" s="230"/>
       <c r="F33" s="19"/>
       <c r="G33" s="230"/>
-      <c r="H33" s="334" t="s">
+      <c r="H33" s="390" t="s">
         <v>853</v>
       </c>
-      <c r="I33" s="334"/>
-      <c r="J33" s="334"/>
-      <c r="K33" s="334"/>
-      <c r="L33" s="334"/>
-      <c r="M33" s="334"/>
+      <c r="I33" s="390"/>
+      <c r="J33" s="390"/>
+      <c r="K33" s="390"/>
+      <c r="L33" s="390"/>
+      <c r="M33" s="390"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" customHeight="1">
-      <c r="H34" s="335"/>
-      <c r="I34" s="335"/>
-      <c r="J34" s="335"/>
-      <c r="K34" s="335"/>
-      <c r="L34" s="335"/>
-      <c r="M34" s="335"/>
+      <c r="H34" s="391"/>
+      <c r="I34" s="391"/>
+      <c r="J34" s="391"/>
+      <c r="K34" s="391"/>
+      <c r="L34" s="391"/>
+      <c r="M34" s="391"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="18" hidden="1" customHeight="1">
@@ -24982,9 +24984,9 @@
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1">
       <c r="H36" s="236"/>
-      <c r="I36" s="344"/>
-      <c r="J36" s="344"/>
-      <c r="K36" s="344"/>
+      <c r="I36" s="383"/>
+      <c r="J36" s="383"/>
+      <c r="K36" s="383"/>
       <c r="L36" s="236"/>
     </row>
     <row r="37" spans="1:14" ht="14.25" customHeight="1">
@@ -24995,8 +24997,8 @@
     </row>
     <row r="38" spans="1:14" ht="14.25" customHeight="1">
       <c r="F38" s="26"/>
-      <c r="G38" s="348"/>
-      <c r="H38" s="348"/>
+      <c r="G38" s="400"/>
+      <c r="H38" s="400"/>
       <c r="I38" s="243"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1">
@@ -25030,18 +25032,18 @@
       <c r="K42" s="224"/>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1">
-      <c r="H43" s="345"/>
-      <c r="I43" s="345"/>
+      <c r="H43" s="384"/>
+      <c r="I43" s="384"/>
       <c r="J43" s="224"/>
       <c r="K43" s="224"/>
       <c r="M43" s="242"/>
     </row>
     <row r="44" spans="1:14" ht="14.25" hidden="1" customHeight="1">
-      <c r="H44" s="346">
+      <c r="H44" s="385">
         <f>H31*1%</f>
         <v>8245.1327201756521</v>
       </c>
-      <c r="I44" s="346"/>
+      <c r="I44" s="385"/>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1">
       <c r="H45" s="29"/>
@@ -25079,12 +25081,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="H33:M33"/>
@@ -25095,6 +25091,12 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.16" top="0.51" bottom="0.5" header="0.46" footer="0.2"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25132,41 +25134,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="178" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="392" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
+      <c r="N1" s="392"/>
       <c r="O1" s="177"/>
     </row>
     <row r="2" spans="1:16" s="179" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="393" t="s">
         <v>750</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="393"/>
       <c r="O2" s="177"/>
     </row>
     <row r="3" spans="1:16" s="189" customFormat="1" ht="22.5" customHeight="1">
@@ -25216,23 +25218,23 @@
       <c r="P4" s="188"/>
     </row>
     <row r="5" spans="1:16" s="198" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="338" t="s">
+      <c r="A5" s="394" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="339"/>
-      <c r="J5" s="340" t="s">
+      <c r="B5" s="395"/>
+      <c r="C5" s="395"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="395"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
+      <c r="I5" s="395"/>
+      <c r="J5" s="396" t="s">
         <v>756</v>
       </c>
-      <c r="K5" s="340"/>
-      <c r="L5" s="340"/>
-      <c r="M5" s="340"/>
+      <c r="K5" s="396"/>
+      <c r="L5" s="396"/>
+      <c r="M5" s="396"/>
       <c r="N5" s="199"/>
     </row>
     <row r="6" spans="1:16" s="198" customFormat="1" ht="14.25" customHeight="1">
@@ -25251,18 +25253,18 @@
       <c r="E6" s="201" t="s">
         <v>760</v>
       </c>
-      <c r="F6" s="341" t="s">
+      <c r="F6" s="397" t="s">
         <v>761</v>
       </c>
-      <c r="G6" s="341"/>
-      <c r="H6" s="341"/>
+      <c r="G6" s="397"/>
+      <c r="H6" s="397"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="342" t="s">
+      <c r="J6" s="398" t="s">
         <v>762</v>
       </c>
-      <c r="K6" s="343"/>
-      <c r="L6" s="343"/>
-      <c r="M6" s="343"/>
+      <c r="K6" s="399"/>
+      <c r="L6" s="399"/>
+      <c r="M6" s="399"/>
       <c r="N6" s="202" t="s">
         <v>763</v>
       </c>
@@ -25275,22 +25277,22 @@
         <v>764</v>
       </c>
       <c r="E7" s="206"/>
-      <c r="F7" s="349" t="s">
+      <c r="F7" s="401" t="s">
         <v>756</v>
       </c>
-      <c r="G7" s="350"/>
-      <c r="H7" s="351"/>
+      <c r="G7" s="402"/>
+      <c r="H7" s="403"/>
       <c r="I7" s="207" t="s">
         <v>765</v>
       </c>
-      <c r="J7" s="347" t="s">
+      <c r="J7" s="386" t="s">
         <v>766</v>
       </c>
-      <c r="K7" s="347"/>
-      <c r="L7" s="347" t="s">
+      <c r="K7" s="386"/>
+      <c r="L7" s="386" t="s">
         <v>767</v>
       </c>
-      <c r="M7" s="347"/>
+      <c r="M7" s="386"/>
       <c r="N7" s="202" t="s">
         <v>768</v>
       </c>
@@ -25301,11 +25303,11 @@
       <c r="C8" s="209"/>
       <c r="D8" s="210"/>
       <c r="E8" s="211"/>
-      <c r="F8" s="349" t="s">
+      <c r="F8" s="401" t="s">
         <v>769</v>
       </c>
-      <c r="G8" s="350"/>
-      <c r="H8" s="351"/>
+      <c r="G8" s="402"/>
+      <c r="H8" s="403"/>
       <c r="I8" s="213" t="s">
         <v>770</v>
       </c>
@@ -26579,13 +26581,13 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="224" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="331">
+      <c r="A47" s="387">
         <f>M4</f>
         <v>4095</v>
       </c>
-      <c r="B47" s="331"/>
-      <c r="C47" s="331"/>
-      <c r="D47" s="331"/>
+      <c r="B47" s="387"/>
+      <c r="C47" s="387"/>
+      <c r="D47" s="387"/>
       <c r="E47" s="222" t="s">
         <v>847</v>
       </c>
@@ -26606,12 +26608,12 @@
       </c>
     </row>
     <row r="48" spans="1:14" s="224" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="332" t="s">
+      <c r="A48" s="388" t="s">
         <v>848</v>
       </c>
-      <c r="B48" s="333"/>
-      <c r="C48" s="333"/>
-      <c r="D48" s="333"/>
+      <c r="B48" s="389"/>
+      <c r="C48" s="389"/>
+      <c r="D48" s="389"/>
       <c r="E48" s="225" t="s">
         <v>0</v>
       </c>
@@ -26683,22 +26685,22 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="230"/>
-      <c r="I50" s="334" t="s">
+      <c r="I50" s="390" t="s">
         <v>853</v>
       </c>
-      <c r="J50" s="334"/>
-      <c r="K50" s="334"/>
-      <c r="L50" s="334"/>
-      <c r="M50" s="334"/>
-      <c r="N50" s="334"/>
+      <c r="J50" s="390"/>
+      <c r="K50" s="390"/>
+      <c r="L50" s="390"/>
+      <c r="M50" s="390"/>
+      <c r="N50" s="390"/>
     </row>
     <row r="51" spans="1:15" ht="19.5" customHeight="1">
-      <c r="I51" s="335"/>
-      <c r="J51" s="335"/>
-      <c r="K51" s="335"/>
-      <c r="L51" s="335"/>
-      <c r="M51" s="335"/>
-      <c r="N51" s="335"/>
+      <c r="I51" s="391"/>
+      <c r="J51" s="391"/>
+      <c r="K51" s="391"/>
+      <c r="L51" s="391"/>
+      <c r="M51" s="391"/>
+      <c r="N51" s="391"/>
       <c r="O51" s="21"/>
     </row>
     <row r="52" spans="1:15" ht="18" hidden="1" customHeight="1">
@@ -26713,9 +26715,9 @@
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1">
       <c r="I53" s="236"/>
-      <c r="J53" s="344"/>
-      <c r="K53" s="344"/>
-      <c r="L53" s="344"/>
+      <c r="J53" s="383"/>
+      <c r="K53" s="383"/>
+      <c r="L53" s="383"/>
       <c r="M53" s="236"/>
     </row>
     <row r="54" spans="1:15" ht="14.25" customHeight="1">
@@ -26728,8 +26730,8 @@
     <row r="55" spans="1:15" ht="14.25" customHeight="1">
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
-      <c r="H55" s="348"/>
-      <c r="I55" s="348"/>
+      <c r="H55" s="400"/>
+      <c r="I55" s="400"/>
       <c r="J55" s="243"/>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1">
@@ -26766,18 +26768,18 @@
       <c r="L59" s="224"/>
     </row>
     <row r="60" spans="1:15" ht="14.25" customHeight="1">
-      <c r="I60" s="345"/>
-      <c r="J60" s="345"/>
+      <c r="I60" s="384"/>
+      <c r="J60" s="384"/>
       <c r="K60" s="224"/>
       <c r="L60" s="224"/>
       <c r="N60" s="242"/>
     </row>
     <row r="61" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="I61" s="346">
+      <c r="I61" s="385">
         <f>I48*1%</f>
         <v>12759.654327228329</v>
       </c>
-      <c r="J61" s="346"/>
+      <c r="J61" s="385"/>
     </row>
     <row r="62" spans="1:15" ht="14.25" customHeight="1">
       <c r="I62" s="29"/>
@@ -26815,6 +26817,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="I61:J61"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="J7:K7"/>
@@ -26825,14 +26835,6 @@
     <mergeCell ref="J53:L53"/>
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="I60:J60"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.16" top="0.51" bottom="0.5" header="0.46" footer="0.2"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26848,7 +26850,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1"/>
@@ -26864,40 +26866,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="278" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="278" t="s">
         <v>989</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
     </row>
     <row r="4" spans="1:9" s="60" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="65" t="s">
@@ -26939,7 +26941,7 @@
     </row>
     <row r="6" spans="1:9" s="60" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="74">
-        <f>'Company information'!E8</f>
+        <f>'Company information'!H8</f>
         <v>0</v>
       </c>
       <c r="B6" s="66"/>
@@ -26955,44 +26957,44 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="352" t="s">
+      <c r="B7" s="279" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="352" t="s">
+      <c r="C7" s="279" t="s">
         <v>993</v>
       </c>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352" t="s">
+      <c r="D7" s="279"/>
+      <c r="E7" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352" t="s">
+      <c r="F7" s="279"/>
+      <c r="G7" s="279" t="s">
         <v>962</v>
       </c>
-      <c r="H7" s="352" t="s">
+      <c r="H7" s="279" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="352"/>
-      <c r="B8" s="352"/>
-      <c r="C8" s="353" t="s">
+      <c r="A8" s="279"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="353" t="s">
+      <c r="D8" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="353" t="s">
+      <c r="E8" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="353" t="s">
+      <c r="F8" s="253" t="s">
         <v>958</v>
       </c>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
     </row>
     <row r="9" spans="1:9" s="64" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="77"/>
@@ -27091,7 +27093,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K8"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1"/>
@@ -27110,43 +27112,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="282" t="s">
         <v>988</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="257"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="283"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="282" t="s">
         <v>983</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="257"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="283"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="282" t="s">
         <v>1017</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="257"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="283"/>
     </row>
     <row r="4" spans="1:11" s="60" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="91" t="s">
@@ -27163,11 +27165,11 @@
       <c r="G4" s="97" t="s">
         <v>967</v>
       </c>
-      <c r="H4" s="258">
+      <c r="H4" s="285">
         <f>'Company information'!D8</f>
         <v>0</v>
       </c>
-      <c r="I4" s="259"/>
+      <c r="I4" s="286"/>
     </row>
     <row r="5" spans="1:11" s="60" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="91" t="s">
@@ -27182,15 +27184,15 @@
       <c r="E5" s="95"/>
       <c r="F5" s="94"/>
       <c r="G5" s="98"/>
-      <c r="H5" s="258">
+      <c r="H5" s="285">
         <f>'Company information'!E8</f>
         <v>0</v>
       </c>
-      <c r="I5" s="259"/>
+      <c r="I5" s="286"/>
     </row>
     <row r="6" spans="1:11" s="60" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="99">
-        <f>'Company information'!E8</f>
+        <f>'Company information'!H8</f>
         <v>0</v>
       </c>
       <c r="B6" s="92"/>
@@ -27201,57 +27203,57 @@
       <c r="G6" s="75" t="s">
         <v>968</v>
       </c>
-      <c r="H6" s="260">
+      <c r="H6" s="287">
         <f>'Company information'!H9</f>
         <v>0</v>
       </c>
-      <c r="I6" s="261"/>
+      <c r="I6" s="288"/>
     </row>
     <row r="7" spans="1:11" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="354" t="s">
+      <c r="A7" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="354" t="s">
+      <c r="B7" s="289" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="355" t="s">
+      <c r="C7" s="291" t="s">
         <v>992</v>
       </c>
-      <c r="D7" s="356"/>
-      <c r="E7" s="355" t="s">
+      <c r="D7" s="292"/>
+      <c r="E7" s="291" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="356"/>
-      <c r="G7" s="357" t="s">
+      <c r="F7" s="292"/>
+      <c r="G7" s="293" t="s">
         <v>962</v>
       </c>
-      <c r="H7" s="358" t="s">
+      <c r="H7" s="290" t="s">
         <v>1018</v>
       </c>
-      <c r="I7" s="359" t="s">
+      <c r="I7" s="284" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="354"/>
-      <c r="B8" s="354"/>
-      <c r="C8" s="360" t="s">
+      <c r="A8" s="289"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="360" t="s">
+      <c r="E8" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="254" t="s">
         <v>958</v>
       </c>
-      <c r="G8" s="361"/>
-      <c r="H8" s="354"/>
-      <c r="I8" s="359"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="277"/>
+      <c r="K8" s="277"/>
     </row>
     <row r="9" spans="1:11" s="59" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="51"/>
@@ -27265,17 +27267,17 @@
       <c r="I9" s="100"/>
     </row>
     <row r="10" spans="1:11" s="64" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="280" t="s">
         <v>1020</v>
       </c>
-      <c r="B10" s="255"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="255"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="255"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="281"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:K9" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
@@ -27310,581 +27312,596 @@
   <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="367" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="367" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="367" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="367" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="367" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="367" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="367" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="367" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" style="367" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="367" customWidth="1"/>
-    <col min="11" max="12" width="21.77734375" style="367" customWidth="1"/>
-    <col min="13" max="13" width="15" style="367" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="367" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="367" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="367" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" style="367" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" style="367" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" style="367" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" style="367" customWidth="1"/>
-    <col min="21" max="21" width="30.5546875" style="367" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" style="367" customWidth="1"/>
-    <col min="23" max="23" width="14" style="367" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" style="367" customWidth="1"/>
-    <col min="25" max="25" width="26.109375" style="367" customWidth="1"/>
-    <col min="26" max="26" width="27.109375" style="367" customWidth="1"/>
-    <col min="27" max="27" width="15.33203125" style="367" customWidth="1"/>
-    <col min="28" max="28" width="23" style="367" customWidth="1"/>
-    <col min="29" max="29" width="22.109375" style="367" customWidth="1"/>
-    <col min="30" max="30" width="20.109375" style="367" customWidth="1"/>
-    <col min="31" max="31" width="14.21875" style="367" customWidth="1"/>
-    <col min="32" max="32" width="18.44140625" style="367" customWidth="1"/>
-    <col min="33" max="33" width="26.6640625" style="367" customWidth="1"/>
-    <col min="34" max="34" width="14.77734375" style="367" customWidth="1"/>
-    <col min="35" max="35" width="17.77734375" style="367" customWidth="1"/>
-    <col min="36" max="36" width="26.44140625" style="367" customWidth="1"/>
-    <col min="37" max="37" width="28.6640625" style="367" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" style="367" customWidth="1"/>
-    <col min="39" max="39" width="28" style="367" customWidth="1"/>
-    <col min="40" max="40" width="27.21875" style="367" customWidth="1"/>
-    <col min="41" max="41" width="18.33203125" style="367" customWidth="1"/>
-    <col min="42" max="42" width="31.33203125" style="367" customWidth="1"/>
-    <col min="43" max="43" width="13.109375" style="367" customWidth="1"/>
-    <col min="44" max="44" width="8.109375" style="367" customWidth="1"/>
-    <col min="45" max="45" width="18.21875" style="367" customWidth="1"/>
-    <col min="46" max="16384" width="8.88671875" style="367"/>
+    <col min="1" max="1" width="12" style="258" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="258" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="258" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="258" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="258" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="258" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="258" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="258" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" style="258" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="258" customWidth="1"/>
+    <col min="11" max="12" width="21.77734375" style="258" customWidth="1"/>
+    <col min="13" max="13" width="15" style="258" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="258" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="258" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="258" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="258" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" style="258" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" style="258" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" style="258" customWidth="1"/>
+    <col min="21" max="21" width="30.5546875" style="258" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" style="258" customWidth="1"/>
+    <col min="23" max="23" width="14" style="258" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" style="258" customWidth="1"/>
+    <col min="25" max="25" width="26.109375" style="258" customWidth="1"/>
+    <col min="26" max="26" width="27.109375" style="258" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" style="258" customWidth="1"/>
+    <col min="28" max="28" width="23" style="258" customWidth="1"/>
+    <col min="29" max="29" width="22.109375" style="258" customWidth="1"/>
+    <col min="30" max="30" width="20.109375" style="258" customWidth="1"/>
+    <col min="31" max="31" width="14.21875" style="258" customWidth="1"/>
+    <col min="32" max="32" width="18.44140625" style="258" customWidth="1"/>
+    <col min="33" max="33" width="26.6640625" style="258" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" style="258" customWidth="1"/>
+    <col min="35" max="35" width="17.77734375" style="258" customWidth="1"/>
+    <col min="36" max="36" width="26.44140625" style="258" customWidth="1"/>
+    <col min="37" max="37" width="28.6640625" style="258" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" style="258" customWidth="1"/>
+    <col min="39" max="39" width="28" style="258" customWidth="1"/>
+    <col min="40" max="40" width="27.21875" style="258" customWidth="1"/>
+    <col min="41" max="41" width="18.33203125" style="258" customWidth="1"/>
+    <col min="42" max="42" width="31.33203125" style="258" customWidth="1"/>
+    <col min="43" max="43" width="13.109375" style="258" customWidth="1"/>
+    <col min="44" max="44" width="8.109375" style="258" customWidth="1"/>
+    <col min="45" max="45" width="18.21875" style="258" customWidth="1"/>
+    <col min="46" max="16384" width="8.88671875" style="258"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="24.6">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="307" t="s">
         <v>980</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
-      <c r="N1" s="362"/>
-      <c r="O1" s="362"/>
-      <c r="P1" s="362"/>
-      <c r="Q1" s="362"/>
-      <c r="R1" s="363"/>
-      <c r="S1" s="364"/>
-      <c r="T1" s="364"/>
-      <c r="U1" s="364"/>
-      <c r="V1" s="364"/>
-      <c r="W1" s="364"/>
-      <c r="X1" s="365"/>
-      <c r="Y1" s="365"/>
-      <c r="Z1" s="365"/>
-      <c r="AA1" s="365"/>
-      <c r="AB1" s="365"/>
-      <c r="AC1" s="365"/>
-      <c r="AD1" s="365"/>
-      <c r="AE1" s="365"/>
-      <c r="AF1" s="365"/>
-      <c r="AG1" s="365"/>
-      <c r="AH1" s="365"/>
-      <c r="AI1" s="365"/>
-      <c r="AJ1" s="364"/>
-      <c r="AK1" s="364"/>
-      <c r="AL1" s="364"/>
-      <c r="AM1" s="364"/>
-      <c r="AN1" s="364"/>
-      <c r="AO1" s="364"/>
-      <c r="AP1" s="364"/>
-      <c r="AQ1" s="364"/>
-      <c r="AR1" s="364"/>
-      <c r="AS1" s="366"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="255"/>
+      <c r="T1" s="255"/>
+      <c r="U1" s="255"/>
+      <c r="V1" s="255"/>
+      <c r="W1" s="255"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="256"/>
+      <c r="AA1" s="256"/>
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="256"/>
+      <c r="AD1" s="256"/>
+      <c r="AE1" s="256"/>
+      <c r="AF1" s="256"/>
+      <c r="AG1" s="256"/>
+      <c r="AH1" s="256"/>
+      <c r="AI1" s="256"/>
+      <c r="AJ1" s="255"/>
+      <c r="AK1" s="255"/>
+      <c r="AL1" s="255"/>
+      <c r="AM1" s="255"/>
+      <c r="AN1" s="255"/>
+      <c r="AO1" s="255"/>
+      <c r="AP1" s="255"/>
+      <c r="AQ1" s="255"/>
+      <c r="AR1" s="255"/>
+      <c r="AS1" s="257"/>
     </row>
     <row r="2" spans="1:45" ht="24.6">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="307" t="s">
         <v>983</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
-      <c r="L2" s="362"/>
-      <c r="M2" s="362"/>
-      <c r="N2" s="362"/>
-      <c r="O2" s="362"/>
-      <c r="P2" s="362"/>
-      <c r="Q2" s="362"/>
-      <c r="R2" s="363"/>
-      <c r="S2" s="364"/>
-      <c r="T2" s="364"/>
-      <c r="U2" s="364"/>
-      <c r="V2" s="364"/>
-      <c r="W2" s="364"/>
-      <c r="X2" s="365"/>
-      <c r="Y2" s="365"/>
-      <c r="Z2" s="365"/>
-      <c r="AA2" s="365"/>
-      <c r="AB2" s="365"/>
-      <c r="AC2" s="365"/>
-      <c r="AD2" s="365"/>
-      <c r="AE2" s="365"/>
-      <c r="AF2" s="365"/>
-      <c r="AG2" s="365"/>
-      <c r="AH2" s="365"/>
-      <c r="AI2" s="365"/>
-      <c r="AJ2" s="364"/>
-      <c r="AK2" s="364"/>
-      <c r="AL2" s="364"/>
-      <c r="AM2" s="364"/>
-      <c r="AN2" s="364"/>
-      <c r="AO2" s="364"/>
-      <c r="AP2" s="364"/>
-      <c r="AQ2" s="364"/>
-      <c r="AR2" s="364"/>
-      <c r="AS2" s="366"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
+      <c r="M2" s="307"/>
+      <c r="N2" s="307"/>
+      <c r="O2" s="307"/>
+      <c r="P2" s="307"/>
+      <c r="Q2" s="307"/>
+      <c r="R2" s="308"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="256"/>
+      <c r="Y2" s="256"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="256"/>
+      <c r="AB2" s="256"/>
+      <c r="AC2" s="256"/>
+      <c r="AD2" s="256"/>
+      <c r="AE2" s="256"/>
+      <c r="AF2" s="256"/>
+      <c r="AG2" s="256"/>
+      <c r="AH2" s="256"/>
+      <c r="AI2" s="256"/>
+      <c r="AJ2" s="255"/>
+      <c r="AK2" s="255"/>
+      <c r="AL2" s="255"/>
+      <c r="AM2" s="255"/>
+      <c r="AN2" s="255"/>
+      <c r="AO2" s="255"/>
+      <c r="AP2" s="255"/>
+      <c r="AQ2" s="255"/>
+      <c r="AR2" s="255"/>
+      <c r="AS2" s="257"/>
     </row>
     <row r="3" spans="1:45" ht="24.6">
-      <c r="A3" s="362" t="s">
+      <c r="A3" s="307" t="s">
         <v>957</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
-      <c r="K3" s="362"/>
-      <c r="L3" s="362"/>
-      <c r="M3" s="362"/>
-      <c r="N3" s="362"/>
-      <c r="O3" s="362"/>
-      <c r="P3" s="362"/>
-      <c r="Q3" s="362"/>
-      <c r="R3" s="363"/>
-      <c r="S3" s="364"/>
-      <c r="T3" s="364"/>
-      <c r="U3" s="364"/>
-      <c r="V3" s="364"/>
-      <c r="W3" s="364"/>
-      <c r="X3" s="365"/>
-      <c r="Y3" s="365"/>
-      <c r="Z3" s="365"/>
-      <c r="AA3" s="365"/>
-      <c r="AB3" s="365"/>
-      <c r="AC3" s="365"/>
-      <c r="AD3" s="365"/>
-      <c r="AE3" s="365"/>
-      <c r="AF3" s="365"/>
-      <c r="AG3" s="365"/>
-      <c r="AH3" s="365"/>
-      <c r="AI3" s="365"/>
-      <c r="AJ3" s="364"/>
-      <c r="AK3" s="364"/>
-      <c r="AL3" s="364"/>
-      <c r="AM3" s="364"/>
-      <c r="AN3" s="364"/>
-      <c r="AO3" s="364"/>
-      <c r="AP3" s="364"/>
-      <c r="AQ3" s="364"/>
-      <c r="AR3" s="364"/>
-      <c r="AS3" s="366"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="307"/>
+      <c r="M3" s="307"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="255"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="256"/>
+      <c r="AD3" s="256"/>
+      <c r="AE3" s="256"/>
+      <c r="AF3" s="256"/>
+      <c r="AG3" s="256"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="256"/>
+      <c r="AJ3" s="255"/>
+      <c r="AK3" s="255"/>
+      <c r="AL3" s="255"/>
+      <c r="AM3" s="255"/>
+      <c r="AN3" s="255"/>
+      <c r="AO3" s="255"/>
+      <c r="AP3" s="255"/>
+      <c r="AQ3" s="255"/>
+      <c r="AR3" s="255"/>
+      <c r="AS3" s="257"/>
     </row>
     <row r="4" spans="1:45" ht="24.6">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="259" t="s">
         <v>969</v>
       </c>
-      <c r="B4" s="369">
+      <c r="B4" s="260">
         <f>'Company information'!D2</f>
         <v>0</v>
       </c>
-      <c r="C4" s="364"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="372"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="373"/>
-      <c r="I4" s="374" t="s">
+      <c r="C4" s="255"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="265" t="s">
         <v>967</v>
       </c>
-      <c r="J4" s="364"/>
-      <c r="K4" s="375">
+      <c r="J4" s="255"/>
+      <c r="K4" s="266">
         <f>'Company information'!D8</f>
         <v>0</v>
       </c>
-      <c r="L4" s="375"/>
-      <c r="M4" s="376"/>
-      <c r="N4" s="375"/>
-      <c r="O4" s="375"/>
-      <c r="P4" s="375"/>
-      <c r="Q4" s="375"/>
-      <c r="R4" s="365"/>
-      <c r="S4" s="364"/>
-      <c r="T4" s="364"/>
-      <c r="U4" s="364"/>
-      <c r="V4" s="364"/>
-      <c r="W4" s="364"/>
-      <c r="X4" s="365"/>
-      <c r="Y4" s="365"/>
-      <c r="Z4" s="365"/>
-      <c r="AA4" s="365"/>
-      <c r="AB4" s="365"/>
-      <c r="AC4" s="365"/>
-      <c r="AD4" s="365"/>
-      <c r="AE4" s="365"/>
-      <c r="AF4" s="365"/>
-      <c r="AG4" s="365"/>
-      <c r="AH4" s="365"/>
-      <c r="AI4" s="365"/>
-      <c r="AJ4" s="364"/>
-      <c r="AK4" s="364"/>
-      <c r="AL4" s="364"/>
-      <c r="AM4" s="364"/>
-      <c r="AN4" s="364"/>
-      <c r="AO4" s="364"/>
-      <c r="AP4" s="364"/>
-      <c r="AQ4" s="364"/>
-      <c r="AR4" s="364"/>
-      <c r="AS4" s="366"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="256"/>
+      <c r="S4" s="255"/>
+      <c r="T4" s="255"/>
+      <c r="U4" s="255"/>
+      <c r="V4" s="255"/>
+      <c r="W4" s="255"/>
+      <c r="X4" s="256"/>
+      <c r="Y4" s="256"/>
+      <c r="Z4" s="256"/>
+      <c r="AA4" s="256"/>
+      <c r="AB4" s="256"/>
+      <c r="AC4" s="256"/>
+      <c r="AD4" s="256"/>
+      <c r="AE4" s="256"/>
+      <c r="AF4" s="256"/>
+      <c r="AG4" s="256"/>
+      <c r="AH4" s="256"/>
+      <c r="AI4" s="256"/>
+      <c r="AJ4" s="255"/>
+      <c r="AK4" s="255"/>
+      <c r="AL4" s="255"/>
+      <c r="AM4" s="255"/>
+      <c r="AN4" s="255"/>
+      <c r="AO4" s="255"/>
+      <c r="AP4" s="255"/>
+      <c r="AQ4" s="255"/>
+      <c r="AR4" s="255"/>
+      <c r="AS4" s="257"/>
     </row>
     <row r="5" spans="1:45" ht="24.6">
-      <c r="A5" s="377" t="s">
+      <c r="A5" s="268" t="s">
         <v>984</v>
       </c>
-      <c r="B5" s="369">
+      <c r="B5" s="260">
         <f>'Company information'!D4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="364"/>
-      <c r="D5" s="370"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="373"/>
-      <c r="H5" s="373"/>
-      <c r="I5" s="364"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="375">
+      <c r="C5" s="255"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="255"/>
+      <c r="J5" s="255"/>
+      <c r="K5" s="266">
         <f>'Company information'!E8</f>
         <v>0</v>
       </c>
-      <c r="L5" s="375"/>
-      <c r="M5" s="376"/>
-      <c r="N5" s="378" t="s">
+      <c r="L5" s="266"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="310" t="s">
         <v>1013</v>
       </c>
-      <c r="O5" s="378"/>
-      <c r="P5" s="378"/>
-      <c r="Q5" s="378"/>
-      <c r="R5" s="378"/>
-      <c r="S5" s="378"/>
-      <c r="T5" s="378"/>
-      <c r="U5" s="379"/>
-      <c r="V5" s="380" t="s">
+      <c r="O5" s="310"/>
+      <c r="P5" s="310"/>
+      <c r="Q5" s="310"/>
+      <c r="R5" s="310"/>
+      <c r="S5" s="310"/>
+      <c r="T5" s="310"/>
+      <c r="U5" s="311"/>
+      <c r="V5" s="309" t="s">
         <v>1016</v>
       </c>
-      <c r="W5" s="380"/>
-      <c r="X5" s="381" t="s">
+      <c r="W5" s="309"/>
+      <c r="X5" s="304" t="s">
         <v>1015</v>
       </c>
-      <c r="Y5" s="381"/>
-      <c r="Z5" s="381"/>
-      <c r="AA5" s="381"/>
-      <c r="AB5" s="381"/>
-      <c r="AC5" s="381"/>
-      <c r="AD5" s="381"/>
-      <c r="AE5" s="381"/>
-      <c r="AF5" s="381"/>
-      <c r="AG5" s="381"/>
-      <c r="AH5" s="381"/>
-      <c r="AI5" s="381"/>
-      <c r="AJ5" s="381"/>
-      <c r="AK5" s="381"/>
-      <c r="AL5" s="381"/>
-      <c r="AM5" s="381"/>
-      <c r="AN5" s="381"/>
-      <c r="AO5" s="381"/>
-      <c r="AP5" s="381"/>
-      <c r="AQ5" s="381"/>
-      <c r="AR5" s="381"/>
-      <c r="AS5" s="381"/>
+      <c r="Y5" s="304"/>
+      <c r="Z5" s="304"/>
+      <c r="AA5" s="304"/>
+      <c r="AB5" s="304"/>
+      <c r="AC5" s="304"/>
+      <c r="AD5" s="304"/>
+      <c r="AE5" s="304"/>
+      <c r="AF5" s="304"/>
+      <c r="AG5" s="304"/>
+      <c r="AH5" s="304"/>
+      <c r="AI5" s="304"/>
+      <c r="AJ5" s="304"/>
+      <c r="AK5" s="304"/>
+      <c r="AL5" s="304"/>
+      <c r="AM5" s="304"/>
+      <c r="AN5" s="304"/>
+      <c r="AO5" s="304"/>
+      <c r="AP5" s="304"/>
+      <c r="AQ5" s="304"/>
+      <c r="AR5" s="304"/>
+      <c r="AS5" s="304"/>
     </row>
     <row r="6" spans="1:45" ht="24.6">
-      <c r="A6" s="382">
-        <f>'Company information'!E8</f>
+      <c r="A6" s="269">
+        <f>'Company information'!H8</f>
         <v>0</v>
       </c>
-      <c r="B6" s="369"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="370"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="372"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="373"/>
-      <c r="I6" s="383" t="s">
+      <c r="B6" s="260"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="270" t="s">
         <v>968</v>
       </c>
-      <c r="J6" s="384">
+      <c r="J6" s="305">
         <f>'Company information'!H9</f>
         <v>0</v>
       </c>
-      <c r="K6" s="384"/>
-      <c r="L6" s="385"/>
-      <c r="M6" s="386"/>
-      <c r="N6" s="387"/>
-      <c r="O6" s="387"/>
-      <c r="P6" s="387"/>
-      <c r="Q6" s="387"/>
-      <c r="R6" s="387"/>
-      <c r="S6" s="387"/>
-      <c r="T6" s="387"/>
-      <c r="U6" s="388"/>
-      <c r="V6" s="380"/>
-      <c r="W6" s="380"/>
-      <c r="X6" s="381"/>
-      <c r="Y6" s="381"/>
-      <c r="Z6" s="381"/>
-      <c r="AA6" s="381"/>
-      <c r="AB6" s="381"/>
-      <c r="AC6" s="381"/>
-      <c r="AD6" s="381"/>
-      <c r="AE6" s="381"/>
-      <c r="AF6" s="381"/>
-      <c r="AG6" s="381"/>
-      <c r="AH6" s="381"/>
-      <c r="AI6" s="381"/>
-      <c r="AJ6" s="381"/>
-      <c r="AK6" s="381"/>
-      <c r="AL6" s="381"/>
-      <c r="AM6" s="381"/>
-      <c r="AN6" s="381"/>
-      <c r="AO6" s="381"/>
-      <c r="AP6" s="381"/>
-      <c r="AQ6" s="381"/>
-      <c r="AR6" s="381"/>
-      <c r="AS6" s="381"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="271"/>
+      <c r="M6" s="272"/>
+      <c r="N6" s="312"/>
+      <c r="O6" s="312"/>
+      <c r="P6" s="312"/>
+      <c r="Q6" s="312"/>
+      <c r="R6" s="312"/>
+      <c r="S6" s="312"/>
+      <c r="T6" s="312"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="309"/>
+      <c r="W6" s="309"/>
+      <c r="X6" s="304"/>
+      <c r="Y6" s="304"/>
+      <c r="Z6" s="304"/>
+      <c r="AA6" s="304"/>
+      <c r="AB6" s="304"/>
+      <c r="AC6" s="304"/>
+      <c r="AD6" s="304"/>
+      <c r="AE6" s="304"/>
+      <c r="AF6" s="304"/>
+      <c r="AG6" s="304"/>
+      <c r="AH6" s="304"/>
+      <c r="AI6" s="304"/>
+      <c r="AJ6" s="304"/>
+      <c r="AK6" s="304"/>
+      <c r="AL6" s="304"/>
+      <c r="AM6" s="304"/>
+      <c r="AN6" s="304"/>
+      <c r="AO6" s="304"/>
+      <c r="AP6" s="304"/>
+      <c r="AQ6" s="304"/>
+      <c r="AR6" s="304"/>
+      <c r="AS6" s="304"/>
     </row>
     <row r="7" spans="1:45" ht="22.8">
-      <c r="A7" s="394" t="s">
+      <c r="A7" s="306" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="394" t="s">
+      <c r="B7" s="306" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="306" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="395" t="s">
+      <c r="D7" s="302" t="s">
         <v>759</v>
       </c>
-      <c r="E7" s="394" t="s">
+      <c r="E7" s="306" t="s">
         <v>734</v>
       </c>
-      <c r="F7" s="394"/>
-      <c r="G7" s="394" t="s">
+      <c r="F7" s="306"/>
+      <c r="G7" s="306" t="s">
         <v>981</v>
       </c>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="395" t="s">
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="302" t="s">
         <v>995</v>
       </c>
-      <c r="K7" s="396" t="s">
+      <c r="K7" s="298" t="s">
         <v>1049</v>
       </c>
-      <c r="L7" s="396" t="s">
+      <c r="L7" s="298" t="s">
         <v>1053</v>
       </c>
-      <c r="M7" s="395" t="s">
+      <c r="M7" s="302" t="s">
         <v>996</v>
       </c>
-      <c r="N7" s="389"/>
-      <c r="O7" s="390"/>
-      <c r="P7" s="391"/>
-      <c r="Q7" s="397" t="s">
+      <c r="N7" s="295"/>
+      <c r="O7" s="296"/>
+      <c r="P7" s="297"/>
+      <c r="Q7" s="300" t="s">
         <v>1035</v>
       </c>
-      <c r="R7" s="397" t="s">
+      <c r="R7" s="300" t="s">
         <v>1036</v>
       </c>
-      <c r="S7" s="395" t="s">
+      <c r="S7" s="302" t="s">
         <v>1002</v>
       </c>
-      <c r="T7" s="395" t="s">
+      <c r="T7" s="302" t="s">
         <v>1001</v>
       </c>
-      <c r="U7" s="395" t="s">
+      <c r="U7" s="302" t="s">
         <v>1012</v>
       </c>
-      <c r="V7" s="395" t="s">
+      <c r="V7" s="302" t="s">
         <v>1014</v>
       </c>
-      <c r="W7" s="397" t="s">
+      <c r="W7" s="300" t="s">
         <v>1000</v>
       </c>
-      <c r="X7" s="397" t="s">
+      <c r="X7" s="300" t="s">
         <v>1022</v>
       </c>
-      <c r="Y7" s="397" t="s">
+      <c r="Y7" s="300" t="s">
         <v>1023</v>
       </c>
-      <c r="Z7" s="397" t="s">
+      <c r="Z7" s="300" t="s">
         <v>1003</v>
       </c>
-      <c r="AA7" s="397" t="s">
+      <c r="AA7" s="300" t="s">
         <v>758</v>
       </c>
-      <c r="AB7" s="392"/>
-      <c r="AC7" s="392"/>
-      <c r="AD7" s="397" t="s">
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="300" t="s">
         <v>1004</v>
       </c>
-      <c r="AE7" s="397" t="s">
+      <c r="AE7" s="300" t="s">
         <v>1005</v>
       </c>
-      <c r="AF7" s="392"/>
-      <c r="AG7" s="397" t="s">
+      <c r="AF7" s="301"/>
+      <c r="AG7" s="300" t="s">
         <v>1024</v>
       </c>
-      <c r="AH7" s="397" t="s">
+      <c r="AH7" s="300" t="s">
         <v>997</v>
       </c>
-      <c r="AI7" s="392"/>
-      <c r="AJ7" s="397" t="s">
+      <c r="AI7" s="301"/>
+      <c r="AJ7" s="300" t="s">
         <v>1025</v>
       </c>
-      <c r="AK7" s="397" t="s">
+      <c r="AK7" s="300" t="s">
         <v>1026</v>
       </c>
-      <c r="AL7" s="397" t="s">
+      <c r="AL7" s="300" t="s">
         <v>1027</v>
       </c>
-      <c r="AM7" s="397" t="s">
+      <c r="AM7" s="300" t="s">
         <v>1028</v>
       </c>
-      <c r="AN7" s="397" t="s">
+      <c r="AN7" s="300" t="s">
         <v>1029</v>
       </c>
-      <c r="AO7" s="397" t="s">
+      <c r="AO7" s="300" t="s">
         <v>1030</v>
       </c>
-      <c r="AP7" s="397" t="s">
+      <c r="AP7" s="300" t="s">
         <v>1031</v>
       </c>
-      <c r="AQ7" s="397" t="s">
+      <c r="AQ7" s="300" t="s">
         <v>1032</v>
       </c>
-      <c r="AR7" s="397" t="s">
+      <c r="AR7" s="300" t="s">
         <v>760</v>
       </c>
-      <c r="AS7" s="397" t="s">
+      <c r="AS7" s="300" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="22.8">
-      <c r="A8" s="394"/>
-      <c r="B8" s="394"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="395"/>
-      <c r="E8" s="398" t="s">
+      <c r="A8" s="306"/>
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="398" t="s">
+      <c r="F8" s="273" t="s">
         <v>958</v>
       </c>
-      <c r="G8" s="398" t="s">
+      <c r="G8" s="273" t="s">
         <v>982</v>
       </c>
-      <c r="H8" s="399" t="s">
+      <c r="H8" s="274" t="s">
         <v>959</v>
       </c>
-      <c r="I8" s="399" t="s">
+      <c r="I8" s="274" t="s">
         <v>960</v>
       </c>
-      <c r="J8" s="395"/>
-      <c r="K8" s="400"/>
-      <c r="L8" s="400"/>
-      <c r="M8" s="395"/>
-      <c r="N8" s="401" t="s">
+      <c r="J8" s="302"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="275" t="s">
         <v>1050</v>
       </c>
-      <c r="O8" s="401" t="s">
+      <c r="O8" s="275" t="s">
         <v>1051</v>
       </c>
-      <c r="P8" s="401" t="s">
+      <c r="P8" s="275" t="s">
         <v>1052</v>
       </c>
-      <c r="Q8" s="392"/>
-      <c r="R8" s="392"/>
-      <c r="S8" s="395"/>
-      <c r="T8" s="395"/>
-      <c r="U8" s="395"/>
-      <c r="V8" s="395"/>
-      <c r="W8" s="393"/>
-      <c r="X8" s="392"/>
-      <c r="Y8" s="392"/>
-      <c r="Z8" s="392"/>
-      <c r="AA8" s="402" t="s">
+      <c r="Q8" s="301"/>
+      <c r="R8" s="301"/>
+      <c r="S8" s="302"/>
+      <c r="T8" s="302"/>
+      <c r="U8" s="302"/>
+      <c r="V8" s="302"/>
+      <c r="W8" s="303"/>
+      <c r="X8" s="301"/>
+      <c r="Y8" s="301"/>
+      <c r="Z8" s="301"/>
+      <c r="AA8" s="276" t="s">
         <v>1006</v>
       </c>
-      <c r="AB8" s="402" t="s">
+      <c r="AB8" s="276" t="s">
         <v>1034</v>
       </c>
-      <c r="AC8" s="402" t="s">
+      <c r="AC8" s="276" t="s">
         <v>1007</v>
       </c>
-      <c r="AD8" s="392"/>
-      <c r="AE8" s="402" t="s">
+      <c r="AD8" s="301"/>
+      <c r="AE8" s="276" t="s">
         <v>1008</v>
       </c>
-      <c r="AF8" s="402" t="s">
+      <c r="AF8" s="276" t="s">
         <v>1009</v>
       </c>
-      <c r="AG8" s="392"/>
-      <c r="AH8" s="402" t="s">
+      <c r="AG8" s="301"/>
+      <c r="AH8" s="276" t="s">
         <v>1010</v>
       </c>
-      <c r="AI8" s="402" t="s">
+      <c r="AI8" s="276" t="s">
         <v>1011</v>
       </c>
-      <c r="AJ8" s="392"/>
-      <c r="AK8" s="392"/>
-      <c r="AL8" s="392"/>
-      <c r="AM8" s="392"/>
-      <c r="AN8" s="392"/>
-      <c r="AO8" s="392"/>
-      <c r="AP8" s="392"/>
-      <c r="AQ8" s="392"/>
-      <c r="AR8" s="392"/>
-      <c r="AS8" s="392"/>
+      <c r="AJ8" s="301"/>
+      <c r="AK8" s="301"/>
+      <c r="AL8" s="301"/>
+      <c r="AM8" s="301"/>
+      <c r="AN8" s="301"/>
+      <c r="AO8" s="301"/>
+      <c r="AP8" s="301"/>
+      <c r="AQ8" s="301"/>
+      <c r="AR8" s="301"/>
+      <c r="AS8" s="301"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:AS8" xr:uid="{8AB6F532-92EF-483A-99A9-EF9B2ABC7956}"/>
   <mergeCells count="43">
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="AO7:AO8"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="N5:U6"/>
+    <mergeCell ref="X5:AS6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
     <mergeCell ref="AR7:AR8"/>
     <mergeCell ref="AS7:AS8"/>
     <mergeCell ref="U7:U8"/>
@@ -27901,27 +27918,12 @@
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
     <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="X5:AS6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="N5:U6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AM7:AM8"/>
   </mergeCells>
   <phoneticPr fontId="71" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27937,7 +27939,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1"/>
@@ -27952,31 +27954,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="70" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="278" t="s">
         <v>987</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
     </row>
     <row r="2" spans="1:5" s="70" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="278" t="s">
         <v>998</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
     </row>
     <row r="3" spans="1:5" s="70" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="278" t="s">
         <v>999</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
     </row>
     <row r="4" spans="1:5" s="70" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="73" t="s">
@@ -28012,7 +28014,7 @@
     </row>
     <row r="6" spans="1:5" s="70" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="74">
-        <f>'Company information'!E8</f>
+        <f>'Company information'!H8</f>
         <v>0</v>
       </c>
       <c r="B6" s="66"/>
@@ -28025,30 +28027,30 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="352" t="s">
+      <c r="B7" s="279" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="352" t="s">
+      <c r="C7" s="279" t="s">
         <v>994</v>
       </c>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352" t="s">
+      <c r="D7" s="279"/>
+      <c r="E7" s="279" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="352"/>
-      <c r="B8" s="352"/>
-      <c r="C8" s="353" t="s">
+      <c r="A8" s="279"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="353" t="s">
+      <c r="D8" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="352"/>
+      <c r="E8" s="279"/>
     </row>
     <row r="9" spans="1:5" s="64" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="77"/>
@@ -28172,7 +28174,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1"/>
@@ -28190,44 +28192,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="102" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="314" t="s">
         <v>986</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
       <c r="I1" s="105"/>
       <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:14" s="102" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="314" t="s">
         <v>990</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
+      <c r="G2" s="314"/>
+      <c r="H2" s="314"/>
       <c r="I2" s="105"/>
       <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:14" s="102" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="314" t="s">
         <v>985</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
       <c r="I3" s="105"/>
       <c r="J3" s="105"/>
     </row>
@@ -28270,7 +28272,7 @@
     </row>
     <row r="6" spans="1:14" s="102" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="103">
-        <f>'Company information'!E8</f>
+        <f>'Company information'!H8</f>
         <v>0</v>
       </c>
       <c r="B6" s="54"/>
@@ -28286,42 +28288,42 @@
       <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:14" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="354" t="s">
+      <c r="A7" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="354" t="s">
+      <c r="B7" s="289" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="355" t="s">
+      <c r="C7" s="291" t="s">
         <v>734</v>
       </c>
-      <c r="D7" s="356"/>
-      <c r="E7" s="357" t="s">
+      <c r="D7" s="292"/>
+      <c r="E7" s="293" t="s">
         <v>963</v>
       </c>
-      <c r="F7" s="357" t="s">
+      <c r="F7" s="293" t="s">
         <v>961</v>
       </c>
-      <c r="G7" s="357" t="s">
+      <c r="G7" s="293" t="s">
         <v>964</v>
       </c>
-      <c r="H7" s="354" t="s">
+      <c r="H7" s="289" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="354"/>
-      <c r="B8" s="354"/>
-      <c r="C8" s="360" t="s">
+      <c r="A8" s="289"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="254" t="s">
         <v>958</v>
       </c>
-      <c r="E8" s="361"/>
-      <c r="F8" s="361"/>
-      <c r="G8" s="361"/>
-      <c r="H8" s="354"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="289"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
       <c r="L9" s="111"/>
@@ -28754,42 +28756,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="285" t="s">
+      <c r="A2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A3" s="286" t="e">
+      <c r="A3" s="319" t="e">
         <f>'Annex I-IM State Charge'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B3" s="286"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
       <c r="F3" s="120"/>
       <c r="G3" s="120"/>
       <c r="H3" s="120"/>
@@ -28797,13 +28799,13 @@
       <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="287" t="e">
+      <c r="A4" s="320" t="e">
         <f>'Annex I-IM State Charge'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
+      <c r="B4" s="320"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
       <c r="E4" s="120"/>
       <c r="F4" s="120"/>
       <c r="G4" s="120"/>
@@ -28812,47 +28814,47 @@
       <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="321" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="324" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="292"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="294" t="s">
+      <c r="C5" s="325"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="327" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="296" t="s">
+      <c r="F5" s="328"/>
+      <c r="G5" s="328"/>
+      <c r="H5" s="328"/>
+      <c r="I5" s="328"/>
+      <c r="J5" s="329" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1">
-      <c r="A6" s="289"/>
-      <c r="B6" s="299" t="s">
+      <c r="A6" s="322"/>
+      <c r="B6" s="332" t="s">
         <v>734</v>
       </c>
-      <c r="C6" s="300"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="302" t="s">
+      <c r="C6" s="333"/>
+      <c r="D6" s="334"/>
+      <c r="E6" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="303" t="s">
+      <c r="F6" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="299" t="s">
+      <c r="G6" s="332" t="s">
         <v>734</v>
       </c>
-      <c r="H6" s="300"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="297"/>
+      <c r="H6" s="333"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="330"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="290"/>
+      <c r="A7" s="323"/>
       <c r="B7" s="121" t="s">
         <v>6</v>
       </c>
@@ -28862,8 +28864,8 @@
       <c r="D7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
       <c r="G7" s="121" t="s">
         <v>6</v>
       </c>
@@ -28873,7 +28875,7 @@
       <c r="I7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="298"/>
+      <c r="J7" s="331"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1">
       <c r="A8" s="122">
@@ -29196,11 +29198,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="284" t="s">
+      <c r="A18" s="315" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="284"/>
-      <c r="C18" s="284"/>
+      <c r="B18" s="315"/>
+      <c r="C18" s="315"/>
       <c r="D18" s="125">
         <f>SUM(D8:D17)</f>
         <v>717.92999999999984</v>
@@ -29218,11 +29220,11 @@
       <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A19" s="284" t="s">
+      <c r="A19" s="315" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="284"/>
-      <c r="C19" s="284"/>
+      <c r="B19" s="315"/>
+      <c r="C19" s="315"/>
       <c r="D19" s="125"/>
       <c r="E19" s="126"/>
       <c r="F19" s="123"/>
@@ -29399,11 +29401,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1">
-      <c r="A25" s="284" t="s">
+      <c r="A25" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="284"/>
-      <c r="C25" s="284"/>
+      <c r="B25" s="315"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="125">
         <f>SUM(D20:D24)</f>
         <v>363.15</v>
@@ -29421,11 +29423,11 @@
       <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A26" s="284" t="s">
+      <c r="A26" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="284"/>
-      <c r="C26" s="284"/>
+      <c r="B26" s="315"/>
+      <c r="C26" s="315"/>
       <c r="D26" s="125"/>
       <c r="E26" s="126"/>
       <c r="F26" s="123"/>
@@ -29602,11 +29604,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1">
-      <c r="A32" s="284" t="s">
+      <c r="A32" s="315" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="284"/>
-      <c r="C32" s="284"/>
+      <c r="B32" s="315"/>
+      <c r="C32" s="315"/>
       <c r="D32" s="125">
         <f>SUM(D27:D31)</f>
         <v>424.63</v>
@@ -29624,11 +29626,11 @@
       <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A33" s="284" t="s">
+      <c r="A33" s="315" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="284"/>
-      <c r="C33" s="284"/>
+      <c r="B33" s="315"/>
+      <c r="C33" s="315"/>
       <c r="D33" s="125"/>
       <c r="E33" s="126"/>
       <c r="F33" s="123"/>
@@ -29741,11 +29743,11 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1">
-      <c r="A37" s="284" t="s">
+      <c r="A37" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="284"/>
-      <c r="C37" s="284"/>
+      <c r="B37" s="315"/>
+      <c r="C37" s="315"/>
       <c r="D37" s="125">
         <f>SUM(D34:D36)</f>
         <v>323.32000000000005</v>
@@ -29763,11 +29765,11 @@
       <c r="J37" s="129"/>
     </row>
     <row r="38" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="284"/>
-      <c r="C38" s="284"/>
+      <c r="B38" s="315"/>
+      <c r="C38" s="315"/>
       <c r="D38" s="125"/>
       <c r="E38" s="126"/>
       <c r="F38" s="123"/>
@@ -29912,11 +29914,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="315" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="284"/>
-      <c r="C43" s="284"/>
+      <c r="B43" s="315"/>
+      <c r="C43" s="315"/>
       <c r="D43" s="125">
         <f>SUM(D39:D42)</f>
         <v>272.76</v>
@@ -29934,11 +29936,11 @@
       <c r="J43" s="129"/>
     </row>
     <row r="44" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A44" s="284" t="s">
+      <c r="A44" s="315" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="284"/>
-      <c r="C44" s="284"/>
+      <c r="B44" s="315"/>
+      <c r="C44" s="315"/>
       <c r="D44" s="125"/>
       <c r="E44" s="126"/>
       <c r="F44" s="123"/>
@@ -30179,11 +30181,11 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1">
-      <c r="A52" s="284" t="s">
+      <c r="A52" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="284"/>
-      <c r="C52" s="284"/>
+      <c r="B52" s="315"/>
+      <c r="C52" s="315"/>
       <c r="D52" s="125">
         <f>SUM(D45:D51)</f>
         <v>462.51</v>
@@ -30201,11 +30203,11 @@
       <c r="J52" s="129"/>
     </row>
     <row r="53" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A53" s="284" t="s">
+      <c r="A53" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="284"/>
-      <c r="C53" s="284"/>
+      <c r="B53" s="315"/>
+      <c r="C53" s="315"/>
       <c r="D53" s="125"/>
       <c r="E53" s="126"/>
       <c r="F53" s="123"/>
@@ -30542,11 +30544,11 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1">
-      <c r="A64" s="284" t="s">
+      <c r="A64" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="284"/>
-      <c r="C64" s="284"/>
+      <c r="B64" s="315"/>
+      <c r="C64" s="315"/>
       <c r="D64" s="1">
         <f>SUM(D54:D63)</f>
         <v>1160.08</v>
@@ -30564,11 +30566,11 @@
       <c r="J64" s="129"/>
     </row>
     <row r="65" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A65" s="284" t="s">
+      <c r="A65" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="284"/>
-      <c r="C65" s="284"/>
+      <c r="B65" s="315"/>
+      <c r="C65" s="315"/>
       <c r="D65" s="1"/>
       <c r="E65" s="126"/>
       <c r="F65" s="123"/>
@@ -30841,11 +30843,11 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1">
-      <c r="A74" s="284" t="s">
+      <c r="A74" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="284"/>
-      <c r="C74" s="284"/>
+      <c r="B74" s="315"/>
+      <c r="C74" s="315"/>
       <c r="D74" s="1">
         <f>SUM(D66:D73)</f>
         <v>961.41000000000008</v>
@@ -30863,11 +30865,11 @@
       <c r="J74" s="129"/>
     </row>
     <row r="75" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A75" s="284" t="s">
+      <c r="A75" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="284"/>
-      <c r="C75" s="284"/>
+      <c r="B75" s="315"/>
+      <c r="C75" s="315"/>
       <c r="D75" s="1"/>
       <c r="E75" s="126"/>
       <c r="F75" s="123"/>
@@ -31172,11 +31174,11 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1">
-      <c r="A85" s="284" t="s">
+      <c r="A85" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="284"/>
-      <c r="C85" s="284"/>
+      <c r="B85" s="315"/>
+      <c r="C85" s="315"/>
       <c r="D85" s="1">
         <f>SUM(D76:D84)</f>
         <v>867.33999999999992</v>
@@ -31194,11 +31196,11 @@
       <c r="J85" s="129"/>
     </row>
     <row r="86" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A86" s="284" t="s">
+      <c r="A86" s="315" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="284"/>
-      <c r="C86" s="284"/>
+      <c r="B86" s="315"/>
+      <c r="C86" s="315"/>
       <c r="D86" s="1"/>
       <c r="E86" s="126"/>
       <c r="F86" s="123"/>
@@ -31535,11 +31537,11 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1">
-      <c r="A97" s="284" t="s">
+      <c r="A97" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="284"/>
-      <c r="C97" s="284"/>
+      <c r="B97" s="315"/>
+      <c r="C97" s="315"/>
       <c r="D97" s="1">
         <f>SUM(D87:D96)</f>
         <v>1138.25</v>
@@ -31557,11 +31559,11 @@
       <c r="J97" s="129"/>
     </row>
     <row r="98" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A98" s="284" t="s">
+      <c r="A98" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="B98" s="284"/>
-      <c r="C98" s="284"/>
+      <c r="B98" s="315"/>
+      <c r="C98" s="315"/>
       <c r="D98" s="1"/>
       <c r="E98" s="126"/>
       <c r="F98" s="123"/>
@@ -31834,11 +31836,11 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="18" customHeight="1">
-      <c r="A107" s="284" t="s">
+      <c r="A107" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="284"/>
-      <c r="C107" s="284"/>
+      <c r="B107" s="315"/>
+      <c r="C107" s="315"/>
       <c r="D107" s="1">
         <f>SUM(D99:D106)</f>
         <v>585.41999999999996</v>
@@ -31856,11 +31858,11 @@
       <c r="J107" s="129"/>
     </row>
     <row r="108" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A108" s="284" t="s">
+      <c r="A108" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="B108" s="284"/>
-      <c r="C108" s="284"/>
+      <c r="B108" s="315"/>
+      <c r="C108" s="315"/>
       <c r="D108" s="1"/>
       <c r="E108" s="126"/>
       <c r="F108" s="123"/>
@@ -32101,11 +32103,11 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="18" customHeight="1">
-      <c r="A116" s="284" t="s">
+      <c r="A116" s="315" t="s">
         <v>18</v>
       </c>
-      <c r="B116" s="284"/>
-      <c r="C116" s="284"/>
+      <c r="B116" s="315"/>
+      <c r="C116" s="315"/>
       <c r="D116" s="1">
         <f>SUM(D109:D115)</f>
         <v>744.72</v>
@@ -32123,11 +32125,11 @@
       <c r="J116" s="129"/>
     </row>
     <row r="117" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A117" s="284" t="s">
+      <c r="A117" s="315" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="284"/>
-      <c r="C117" s="284"/>
+      <c r="B117" s="315"/>
+      <c r="C117" s="315"/>
       <c r="D117" s="1"/>
       <c r="E117" s="126"/>
       <c r="F117" s="123"/>
@@ -32464,11 +32466,11 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="18" customHeight="1">
-      <c r="A128" s="284" t="s">
+      <c r="A128" s="315" t="s">
         <v>17</v>
       </c>
-      <c r="B128" s="284"/>
-      <c r="C128" s="284"/>
+      <c r="B128" s="315"/>
+      <c r="C128" s="315"/>
       <c r="D128" s="1">
         <f>SUM(D118:D127)</f>
         <v>1724.6699999999998</v>
@@ -32486,11 +32488,11 @@
       <c r="J128" s="129"/>
     </row>
     <row r="129" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A129" s="284" t="s">
+      <c r="A129" s="315" t="s">
         <v>17</v>
       </c>
-      <c r="B129" s="284"/>
-      <c r="C129" s="284"/>
+      <c r="B129" s="315"/>
+      <c r="C129" s="315"/>
       <c r="D129" s="1"/>
       <c r="E129" s="126"/>
       <c r="F129" s="123"/>
@@ -32667,11 +32669,11 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="18" customHeight="1">
-      <c r="A135" s="284" t="s">
+      <c r="A135" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="B135" s="284"/>
-      <c r="C135" s="284"/>
+      <c r="B135" s="315"/>
+      <c r="C135" s="315"/>
       <c r="D135" s="1">
         <f>SUM(D130:D134)</f>
         <v>611.80000000000007</v>
@@ -32689,11 +32691,11 @@
       <c r="J135" s="129"/>
     </row>
     <row r="136" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A136" s="284" t="s">
+      <c r="A136" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="B136" s="284"/>
-      <c r="C136" s="284"/>
+      <c r="B136" s="315"/>
+      <c r="C136" s="315"/>
       <c r="D136" s="1"/>
       <c r="E136" s="126"/>
       <c r="F136" s="123"/>
@@ -33030,11 +33032,11 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="18" customHeight="1">
-      <c r="A147" s="284" t="s">
+      <c r="A147" s="315" t="s">
         <v>22</v>
       </c>
-      <c r="B147" s="284"/>
-      <c r="C147" s="284"/>
+      <c r="B147" s="315"/>
+      <c r="C147" s="315"/>
       <c r="D147" s="1">
         <f>SUM(D137:D146)</f>
         <v>1337.1399999999999</v>
@@ -33052,11 +33054,11 @@
       <c r="J147" s="129"/>
     </row>
     <row r="148" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A148" s="284" t="s">
+      <c r="A148" s="315" t="s">
         <v>22</v>
       </c>
-      <c r="B148" s="284"/>
-      <c r="C148" s="284"/>
+      <c r="B148" s="315"/>
+      <c r="C148" s="315"/>
       <c r="D148" s="1"/>
       <c r="E148" s="126"/>
       <c r="F148" s="123"/>
@@ -33297,11 +33299,11 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="18" customHeight="1">
-      <c r="A156" s="284" t="s">
+      <c r="A156" s="315" t="s">
         <v>23</v>
       </c>
-      <c r="B156" s="284"/>
-      <c r="C156" s="284"/>
+      <c r="B156" s="315"/>
+      <c r="C156" s="315"/>
       <c r="D156" s="1">
         <f>SUM(D149:D155)</f>
         <v>868.96</v>
@@ -33319,11 +33321,11 @@
       <c r="J156" s="129"/>
     </row>
     <row r="157" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A157" s="284" t="s">
+      <c r="A157" s="315" t="s">
         <v>23</v>
       </c>
-      <c r="B157" s="284"/>
-      <c r="C157" s="284"/>
+      <c r="B157" s="315"/>
+      <c r="C157" s="315"/>
       <c r="D157" s="1"/>
       <c r="E157" s="126"/>
       <c r="F157" s="123"/>
@@ -33436,11 +33438,11 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="18" customHeight="1">
-      <c r="A161" s="284" t="s">
+      <c r="A161" s="315" t="s">
         <v>24</v>
       </c>
-      <c r="B161" s="284"/>
-      <c r="C161" s="284"/>
+      <c r="B161" s="315"/>
+      <c r="C161" s="315"/>
       <c r="D161" s="1">
         <f>SUM(D158:D160)</f>
         <v>308.44</v>
@@ -33458,11 +33460,11 @@
       <c r="J161" s="129"/>
     </row>
     <row r="162" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A162" s="284" t="s">
+      <c r="A162" s="315" t="s">
         <v>24</v>
       </c>
-      <c r="B162" s="284"/>
-      <c r="C162" s="284"/>
+      <c r="B162" s="315"/>
+      <c r="C162" s="315"/>
       <c r="D162" s="1"/>
       <c r="E162" s="126"/>
       <c r="F162" s="133"/>
@@ -33671,11 +33673,11 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="18" customHeight="1">
-      <c r="A169" s="284" t="s">
+      <c r="A169" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="B169" s="284"/>
-      <c r="C169" s="284"/>
+      <c r="B169" s="315"/>
+      <c r="C169" s="315"/>
       <c r="D169" s="1">
         <f>SUM(D163:D168)</f>
         <v>845.91000000000008</v>
@@ -33693,11 +33695,11 @@
       <c r="J169" s="129"/>
     </row>
     <row r="170" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A170" s="284" t="s">
+      <c r="A170" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="B170" s="284"/>
-      <c r="C170" s="284"/>
+      <c r="B170" s="315"/>
+      <c r="C170" s="315"/>
       <c r="D170" s="1"/>
       <c r="E170" s="126"/>
       <c r="F170" s="123"/>
@@ -33938,11 +33940,11 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="18" customHeight="1">
-      <c r="A178" s="284" t="s">
+      <c r="A178" s="315" t="s">
         <v>26</v>
       </c>
-      <c r="B178" s="284"/>
-      <c r="C178" s="284"/>
+      <c r="B178" s="315"/>
+      <c r="C178" s="315"/>
       <c r="D178" s="125">
         <f>SUM(D171:D177)</f>
         <v>757.07</v>
@@ -33960,11 +33962,11 @@
       <c r="J178" s="129"/>
     </row>
     <row r="179" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A179" s="284" t="s">
+      <c r="A179" s="315" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="284"/>
-      <c r="C179" s="284"/>
+      <c r="B179" s="315"/>
+      <c r="C179" s="315"/>
       <c r="D179" s="125"/>
       <c r="E179" s="126"/>
       <c r="F179" s="123"/>
@@ -34237,11 +34239,11 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="18" customHeight="1">
-      <c r="A188" s="284" t="s">
+      <c r="A188" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="B188" s="284"/>
-      <c r="C188" s="284"/>
+      <c r="B188" s="315"/>
+      <c r="C188" s="315"/>
       <c r="D188" s="125">
         <f>SUM(D180:D187)</f>
         <v>1400.05</v>
@@ -34259,11 +34261,11 @@
       <c r="J188" s="129"/>
     </row>
     <row r="189" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A189" s="284" t="s">
+      <c r="A189" s="315" t="s">
         <v>36</v>
       </c>
-      <c r="B189" s="284"/>
-      <c r="C189" s="284"/>
+      <c r="B189" s="315"/>
+      <c r="C189" s="315"/>
       <c r="D189" s="125"/>
       <c r="E189" s="126"/>
       <c r="F189" s="123"/>
@@ -34504,11 +34506,11 @@
       </c>
     </row>
     <row r="197" spans="1:10" ht="18" customHeight="1">
-      <c r="A197" s="284" t="s">
+      <c r="A197" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="B197" s="284"/>
-      <c r="C197" s="284"/>
+      <c r="B197" s="315"/>
+      <c r="C197" s="315"/>
       <c r="D197" s="125">
         <f>SUM(D190:D196)</f>
         <v>1272.73</v>
@@ -34526,11 +34528,11 @@
       <c r="J197" s="129"/>
     </row>
     <row r="198" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A198" s="284" t="s">
+      <c r="A198" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="B198" s="284"/>
-      <c r="C198" s="284"/>
+      <c r="B198" s="315"/>
+      <c r="C198" s="315"/>
       <c r="D198" s="125"/>
       <c r="E198" s="126"/>
       <c r="F198" s="123"/>
@@ -34707,11 +34709,11 @@
       </c>
     </row>
     <row r="204" spans="1:10" ht="18" customHeight="1">
-      <c r="A204" s="284" t="s">
+      <c r="A204" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="B204" s="284"/>
-      <c r="C204" s="284"/>
+      <c r="B204" s="315"/>
+      <c r="C204" s="315"/>
       <c r="D204" s="125">
         <f>SUM(D199:D203)</f>
         <v>786.08</v>
@@ -34729,11 +34731,11 @@
       <c r="J204" s="129"/>
     </row>
     <row r="205" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A205" s="284" t="s">
+      <c r="A205" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="B205" s="284"/>
-      <c r="C205" s="284"/>
+      <c r="B205" s="315"/>
+      <c r="C205" s="315"/>
       <c r="D205" s="125"/>
       <c r="E205" s="126"/>
       <c r="F205" s="123"/>
@@ -34910,11 +34912,11 @@
       </c>
     </row>
     <row r="211" spans="1:10" ht="18" customHeight="1">
-      <c r="A211" s="284" t="s">
+      <c r="A211" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="B211" s="284"/>
-      <c r="C211" s="284"/>
+      <c r="B211" s="315"/>
+      <c r="C211" s="315"/>
       <c r="D211" s="125">
         <f>SUM(D206:D210)</f>
         <v>675.67</v>
@@ -34932,11 +34934,11 @@
       <c r="J211" s="129"/>
     </row>
     <row r="212" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A212" s="284" t="s">
+      <c r="A212" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="B212" s="284"/>
-      <c r="C212" s="284"/>
+      <c r="B212" s="315"/>
+      <c r="C212" s="315"/>
       <c r="D212" s="125"/>
       <c r="E212" s="126"/>
       <c r="F212" s="123"/>
@@ -35113,11 +35115,11 @@
       </c>
     </row>
     <row r="218" spans="1:10" ht="18" customHeight="1">
-      <c r="A218" s="284" t="s">
+      <c r="A218" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="B218" s="284"/>
-      <c r="C218" s="284"/>
+      <c r="B218" s="315"/>
+      <c r="C218" s="315"/>
       <c r="D218" s="125">
         <f>SUM(D213:D217)</f>
         <v>738.56000000000006</v>
@@ -35135,11 +35137,11 @@
       <c r="J218" s="129"/>
     </row>
     <row r="219" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A219" s="284" t="s">
+      <c r="A219" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="B219" s="284"/>
-      <c r="C219" s="284"/>
+      <c r="B219" s="315"/>
+      <c r="C219" s="315"/>
       <c r="D219" s="125"/>
       <c r="E219" s="126"/>
       <c r="F219" s="123"/>
@@ -35252,11 +35254,11 @@
       </c>
     </row>
     <row r="223" spans="1:10" ht="18" customHeight="1">
-      <c r="A223" s="284" t="s">
+      <c r="A223" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="284"/>
-      <c r="C223" s="284"/>
+      <c r="B223" s="315"/>
+      <c r="C223" s="315"/>
       <c r="D223" s="125">
         <f>SUM(D220:D222)</f>
         <v>165.10999999999999</v>
@@ -35274,11 +35276,11 @@
       <c r="J223" s="129"/>
     </row>
     <row r="224" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A224" s="284" t="s">
+      <c r="A224" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="B224" s="284"/>
-      <c r="C224" s="284"/>
+      <c r="B224" s="315"/>
+      <c r="C224" s="315"/>
       <c r="D224" s="125"/>
       <c r="E224" s="126"/>
       <c r="F224" s="123"/>
@@ -35423,11 +35425,11 @@
       </c>
     </row>
     <row r="229" spans="1:10" ht="18" customHeight="1">
-      <c r="A229" s="284" t="s">
+      <c r="A229" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="B229" s="284"/>
-      <c r="C229" s="284"/>
+      <c r="B229" s="315"/>
+      <c r="C229" s="315"/>
       <c r="D229" s="125">
         <f>SUM(D225:D228)</f>
         <v>394.7</v>
@@ -35445,11 +35447,11 @@
       <c r="J229" s="129"/>
     </row>
     <row r="230" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A230" s="284" t="s">
+      <c r="A230" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="B230" s="284"/>
-      <c r="C230" s="284"/>
+      <c r="B230" s="315"/>
+      <c r="C230" s="315"/>
       <c r="D230" s="125"/>
       <c r="E230" s="126"/>
       <c r="F230" s="123"/>
@@ -35626,11 +35628,11 @@
       </c>
     </row>
     <row r="236" spans="1:10" ht="18" customHeight="1">
-      <c r="A236" s="284" t="s">
+      <c r="A236" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="B236" s="284"/>
-      <c r="C236" s="284"/>
+      <c r="B236" s="315"/>
+      <c r="C236" s="315"/>
       <c r="D236" s="125">
         <f>SUM(D231:D235)</f>
         <v>642.54999999999995</v>
@@ -35648,11 +35650,11 @@
       <c r="J236" s="129"/>
     </row>
     <row r="237" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A237" s="284" t="s">
+      <c r="A237" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="B237" s="284"/>
-      <c r="C237" s="284"/>
+      <c r="B237" s="315"/>
+      <c r="C237" s="315"/>
       <c r="D237" s="125"/>
       <c r="E237" s="126"/>
       <c r="F237" s="123"/>
@@ -35797,11 +35799,11 @@
       </c>
     </row>
     <row r="242" spans="1:10" ht="18" customHeight="1">
-      <c r="A242" s="284" t="s">
+      <c r="A242" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="B242" s="284"/>
-      <c r="C242" s="284"/>
+      <c r="B242" s="315"/>
+      <c r="C242" s="315"/>
       <c r="D242" s="125">
         <f>SUM(D238:D241)</f>
         <v>603.67000000000007</v>
@@ -35819,11 +35821,11 @@
       <c r="J242" s="129"/>
     </row>
     <row r="243" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A243" s="284" t="s">
+      <c r="A243" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="B243" s="284"/>
-      <c r="C243" s="284"/>
+      <c r="B243" s="315"/>
+      <c r="C243" s="315"/>
       <c r="D243" s="125"/>
       <c r="E243" s="126"/>
       <c r="F243" s="123"/>
@@ -36000,11 +36002,11 @@
       </c>
     </row>
     <row r="249" spans="1:10" ht="18" customHeight="1">
-      <c r="A249" s="284" t="s">
+      <c r="A249" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="B249" s="284"/>
-      <c r="C249" s="284"/>
+      <c r="B249" s="315"/>
+      <c r="C249" s="315"/>
       <c r="D249" s="125">
         <f>SUM(D244:D248)</f>
         <v>259.83999999999997</v>
@@ -36022,11 +36024,11 @@
       <c r="J249" s="129"/>
     </row>
     <row r="250" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A250" s="284" t="s">
+      <c r="A250" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="B250" s="284"/>
-      <c r="C250" s="284"/>
+      <c r="B250" s="315"/>
+      <c r="C250" s="315"/>
       <c r="D250" s="125"/>
       <c r="E250" s="123"/>
       <c r="F250" s="141"/>
@@ -36203,11 +36205,11 @@
       </c>
     </row>
     <row r="256" spans="1:10" ht="18" customHeight="1">
-      <c r="A256" s="284" t="s">
+      <c r="A256" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="B256" s="284"/>
-      <c r="C256" s="284"/>
+      <c r="B256" s="315"/>
+      <c r="C256" s="315"/>
       <c r="D256" s="125">
         <f>SUM(D251:D255)</f>
         <v>1120.8100000000002</v>
@@ -36225,11 +36227,11 @@
       <c r="J256" s="129"/>
     </row>
     <row r="257" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A257" s="284" t="s">
+      <c r="A257" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="B257" s="284"/>
-      <c r="C257" s="284"/>
+      <c r="B257" s="315"/>
+      <c r="C257" s="315"/>
       <c r="D257" s="125"/>
       <c r="E257" s="126"/>
       <c r="F257" s="123"/>
@@ -36374,11 +36376,11 @@
       </c>
     </row>
     <row r="262" spans="1:10" ht="18" customHeight="1">
-      <c r="A262" s="284" t="s">
+      <c r="A262" s="315" t="s">
         <v>47</v>
       </c>
-      <c r="B262" s="284"/>
-      <c r="C262" s="284"/>
+      <c r="B262" s="315"/>
+      <c r="C262" s="315"/>
       <c r="D262" s="125">
         <f>SUM(D258:D261)</f>
         <v>1701.63</v>
@@ -36396,11 +36398,11 @@
       <c r="J262" s="129"/>
     </row>
     <row r="263" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A263" s="284" t="s">
+      <c r="A263" s="315" t="s">
         <v>47</v>
       </c>
-      <c r="B263" s="284"/>
-      <c r="C263" s="284"/>
+      <c r="B263" s="315"/>
+      <c r="C263" s="315"/>
       <c r="D263" s="125"/>
       <c r="E263" s="126"/>
       <c r="F263" s="123"/>
@@ -36545,11 +36547,11 @@
       </c>
     </row>
     <row r="268" spans="1:10" ht="18" customHeight="1">
-      <c r="A268" s="284" t="s">
+      <c r="A268" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="B268" s="284"/>
-      <c r="C268" s="284"/>
+      <c r="B268" s="315"/>
+      <c r="C268" s="315"/>
       <c r="D268" s="144">
         <f>SUM(D264:D267)</f>
         <v>782</v>
@@ -36567,11 +36569,11 @@
       <c r="J268" s="2"/>
     </row>
     <row r="269" spans="1:10" ht="21.9" customHeight="1">
-      <c r="A269" s="284" t="s">
+      <c r="A269" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="B269" s="284"/>
-      <c r="C269" s="284"/>
+      <c r="B269" s="315"/>
+      <c r="C269" s="315"/>
       <c r="D269" s="144"/>
       <c r="E269" s="126"/>
       <c r="F269" s="123"/>
@@ -36588,11 +36590,11 @@
       <c r="J269" s="145"/>
     </row>
     <row r="270" spans="1:10" ht="23.4">
-      <c r="A270" s="263" t="s">
+      <c r="A270" s="335" t="s">
         <v>724</v>
       </c>
-      <c r="B270" s="264"/>
-      <c r="C270" s="265"/>
+      <c r="B270" s="336"/>
+      <c r="C270" s="337"/>
       <c r="D270" s="146"/>
       <c r="E270" s="147"/>
       <c r="F270" s="147"/>
@@ -36609,11 +36611,11 @@
       </c>
     </row>
     <row r="271" spans="1:10" ht="24">
-      <c r="A271" s="263" t="s">
+      <c r="A271" s="335" t="s">
         <v>724</v>
       </c>
-      <c r="B271" s="264"/>
-      <c r="C271" s="265"/>
+      <c r="B271" s="336"/>
+      <c r="C271" s="337"/>
       <c r="D271" s="146"/>
       <c r="E271" s="147"/>
       <c r="F271" s="147"/>
@@ -36630,18 +36632,18 @@
       </c>
     </row>
     <row r="272" spans="1:10" ht="25.2">
-      <c r="A272" s="268" t="s">
+      <c r="A272" s="340" t="s">
         <v>739</v>
       </c>
-      <c r="B272" s="268"/>
-      <c r="C272" s="268"/>
-      <c r="D272" s="268" t="s">
+      <c r="B272" s="340"/>
+      <c r="C272" s="340"/>
+      <c r="D272" s="340" t="s">
         <v>738</v>
       </c>
-      <c r="E272" s="268"/>
-      <c r="F272" s="268"/>
-      <c r="G272" s="268"/>
-      <c r="H272" s="268"/>
+      <c r="E272" s="340"/>
+      <c r="F272" s="340"/>
+      <c r="G272" s="340"/>
+      <c r="H272" s="340"/>
       <c r="I272" s="152">
         <v>100871023</v>
       </c>
@@ -36650,18 +36652,18 @@
       </c>
     </row>
     <row r="273" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A273" s="268" t="s">
+      <c r="A273" s="340" t="s">
         <v>741</v>
       </c>
-      <c r="B273" s="268"/>
-      <c r="C273" s="268"/>
-      <c r="D273" s="281" t="s">
+      <c r="B273" s="340"/>
+      <c r="C273" s="340"/>
+      <c r="D273" s="353" t="s">
         <v>742</v>
       </c>
-      <c r="E273" s="282"/>
-      <c r="F273" s="282"/>
-      <c r="G273" s="282"/>
-      <c r="H273" s="283"/>
+      <c r="E273" s="354"/>
+      <c r="F273" s="354"/>
+      <c r="G273" s="354"/>
+      <c r="H273" s="355"/>
       <c r="I273" s="154">
         <v>194826746</v>
       </c>
@@ -36670,18 +36672,18 @@
       </c>
     </row>
     <row r="274" spans="1:10" ht="25.2">
-      <c r="A274" s="269" t="s">
+      <c r="A274" s="341" t="s">
         <v>740</v>
       </c>
-      <c r="B274" s="270"/>
-      <c r="C274" s="271"/>
-      <c r="D274" s="278" t="s">
+      <c r="B274" s="342"/>
+      <c r="C274" s="343"/>
+      <c r="D274" s="350" t="s">
         <v>743</v>
       </c>
-      <c r="E274" s="279"/>
-      <c r="F274" s="279"/>
-      <c r="G274" s="279"/>
-      <c r="H274" s="280"/>
+      <c r="E274" s="351"/>
+      <c r="F274" s="351"/>
+      <c r="G274" s="351"/>
+      <c r="H274" s="352"/>
       <c r="I274" s="154">
         <v>295697769</v>
       </c>
@@ -36690,16 +36692,16 @@
       </c>
     </row>
     <row r="275" spans="1:10" ht="25.2">
-      <c r="A275" s="272"/>
-      <c r="B275" s="273"/>
-      <c r="C275" s="274"/>
-      <c r="D275" s="278" t="s">
+      <c r="A275" s="344"/>
+      <c r="B275" s="345"/>
+      <c r="C275" s="346"/>
+      <c r="D275" s="350" t="s">
         <v>744</v>
       </c>
-      <c r="E275" s="279"/>
-      <c r="F275" s="279"/>
-      <c r="G275" s="279"/>
-      <c r="H275" s="280"/>
+      <c r="E275" s="351"/>
+      <c r="F275" s="351"/>
+      <c r="G275" s="351"/>
+      <c r="H275" s="352"/>
       <c r="I275" s="154">
         <v>297231546</v>
       </c>
@@ -36708,16 +36710,16 @@
       </c>
     </row>
     <row r="276" spans="1:10" ht="25.2">
-      <c r="A276" s="272"/>
-      <c r="B276" s="273"/>
-      <c r="C276" s="274"/>
-      <c r="D276" s="278" t="s">
+      <c r="A276" s="344"/>
+      <c r="B276" s="345"/>
+      <c r="C276" s="346"/>
+      <c r="D276" s="350" t="s">
         <v>745</v>
       </c>
-      <c r="E276" s="279"/>
-      <c r="F276" s="279"/>
-      <c r="G276" s="279"/>
-      <c r="H276" s="280"/>
+      <c r="E276" s="351"/>
+      <c r="F276" s="351"/>
+      <c r="G276" s="351"/>
+      <c r="H276" s="352"/>
       <c r="I276" s="154">
         <v>1533777</v>
       </c>
@@ -36726,16 +36728,16 @@
       </c>
     </row>
     <row r="277" spans="1:10" ht="25.2">
-      <c r="A277" s="275"/>
-      <c r="B277" s="276"/>
-      <c r="C277" s="277"/>
-      <c r="D277" s="278" t="s">
+      <c r="A277" s="347"/>
+      <c r="B277" s="348"/>
+      <c r="C277" s="349"/>
+      <c r="D277" s="350" t="s">
         <v>743</v>
       </c>
-      <c r="E277" s="279"/>
-      <c r="F277" s="279"/>
-      <c r="G277" s="279"/>
-      <c r="H277" s="280"/>
+      <c r="E277" s="351"/>
+      <c r="F277" s="351"/>
+      <c r="G277" s="351"/>
+      <c r="H277" s="352"/>
       <c r="I277" s="154">
         <v>295697769</v>
       </c>
@@ -36744,43 +36746,87 @@
       </c>
     </row>
     <row r="278" spans="1:10" ht="25.2">
-      <c r="H278" s="266" t="s">
+      <c r="H278" s="338" t="s">
         <v>748</v>
       </c>
-      <c r="I278" s="266"/>
-      <c r="J278" s="266"/>
+      <c r="I278" s="338"/>
+      <c r="J278" s="338"/>
     </row>
     <row r="279" spans="1:10" ht="25.2">
-      <c r="H279" s="267" t="s">
+      <c r="H279" s="339" t="s">
         <v>746</v>
       </c>
-      <c r="I279" s="267"/>
-      <c r="J279" s="267"/>
+      <c r="I279" s="339"/>
+      <c r="J279" s="339"/>
     </row>
     <row r="286" spans="1:10" ht="25.2">
-      <c r="H286" s="267" t="s">
+      <c r="H286" s="339" t="s">
         <v>747</v>
       </c>
-      <c r="I286" s="267"/>
-      <c r="J286" s="267"/>
+      <c r="I286" s="339"/>
+      <c r="J286" s="339"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="H278:J278"/>
+    <mergeCell ref="H279:J279"/>
+    <mergeCell ref="H286:J286"/>
+    <mergeCell ref="D272:H272"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:H274"/>
+    <mergeCell ref="D275:H275"/>
+    <mergeCell ref="D276:H276"/>
+    <mergeCell ref="D277:H277"/>
+    <mergeCell ref="D273:H273"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A107:C107"/>
     <mergeCell ref="A108:C108"/>
     <mergeCell ref="A116:C116"/>
     <mergeCell ref="A117:C117"/>
@@ -36797,65 +36843,21 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="H278:J278"/>
-    <mergeCell ref="H279:J279"/>
-    <mergeCell ref="H286:J286"/>
-    <mergeCell ref="D272:H272"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:H274"/>
-    <mergeCell ref="D275:H275"/>
-    <mergeCell ref="D276:H276"/>
-    <mergeCell ref="D277:H277"/>
-    <mergeCell ref="D273:H273"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.35" bottom="0.5" header="0.5" footer="0.3"/>
@@ -36891,41 +36893,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.6">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
     </row>
     <row r="2" spans="1:10" ht="33.6">
-      <c r="A2" s="285" t="s">
+      <c r="A2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
     </row>
     <row r="3" spans="1:10" ht="27">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="358" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358"/>
       <c r="F3" s="120"/>
       <c r="G3" s="120"/>
       <c r="H3" s="120"/>
@@ -36933,12 +36935,12 @@
       <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="27">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="320" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
+      <c r="B4" s="320"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
       <c r="E4" s="120"/>
       <c r="F4" s="120"/>
       <c r="G4" s="120"/>
@@ -36947,47 +36949,47 @@
       <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" ht="25.2">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="359" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="313" t="s">
+      <c r="C5" s="363"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="315" t="s">
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="367" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.2">
-      <c r="A6" s="308"/>
-      <c r="B6" s="318" t="s">
+      <c r="A6" s="360"/>
+      <c r="B6" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="319"/>
-      <c r="D6" s="320"/>
-      <c r="E6" s="321" t="s">
+      <c r="C6" s="371"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="322" t="s">
+      <c r="F6" s="374" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="319"/>
-      <c r="I6" s="320"/>
-      <c r="J6" s="316"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="368"/>
     </row>
     <row r="7" spans="1:10" ht="25.2">
-      <c r="A7" s="309"/>
+      <c r="A7" s="361"/>
       <c r="B7" s="155" t="s">
         <v>6</v>
       </c>
@@ -36997,8 +36999,8 @@
       <c r="D7" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
       <c r="G7" s="155" t="s">
         <v>6</v>
       </c>
@@ -37008,7 +37010,7 @@
       <c r="I7" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="317"/>
+      <c r="J7" s="369"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="131">
@@ -38002,10 +38004,10 @@
       <c r="J40" s="156"/>
     </row>
     <row r="41" spans="1:10" ht="24">
-      <c r="A41" s="304" t="s">
+      <c r="A41" s="356" t="s">
         <v>724</v>
       </c>
-      <c r="B41" s="305"/>
+      <c r="B41" s="357"/>
       <c r="C41" s="157"/>
       <c r="D41" s="146">
         <f>SUM(D8:D40)</f>
